--- a/Documentação final do projeto/Estrategia de validação.xlsx
+++ b/Documentação final do projeto/Estrategia de validação.xlsx
@@ -4,15 +4,16 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7320" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7320" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="Gráf1" sheetId="4" r:id="rId1"/>
-    <sheet name="Gráf2" sheetId="5" r:id="rId2"/>
-    <sheet name="Planilha1" sheetId="1" r:id="rId3"/>
+    <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
+    <sheet name="Gráf4" sheetId="7" r:id="rId2"/>
+    <sheet name="Gráf1" sheetId="4" r:id="rId3"/>
+    <sheet name="Gráf2" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Planilha1!$A$3:$A$18</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$3:$A$18</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
   <extLst>
@@ -24,32 +25,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t xml:space="preserve">Planilha de validação </t>
   </si>
   <si>
-    <t>Intuividade</t>
-  </si>
-  <si>
-    <t>Usabilidade</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Otimização </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Processo de notificação </t>
-  </si>
-  <si>
-    <t>Utilidade</t>
-  </si>
-  <si>
     <t xml:space="preserve">Nome </t>
   </si>
   <si>
-    <t>Praticidade</t>
-  </si>
-  <si>
     <t>Bruno</t>
   </si>
   <si>
@@ -63,13 +46,150 @@
   </si>
   <si>
     <t>Fabricio</t>
+  </si>
+  <si>
+    <t>Praticidade?</t>
+  </si>
+  <si>
+    <t>Usabilidade?</t>
+  </si>
+  <si>
+    <t>Processo de notificação?</t>
+  </si>
+  <si>
+    <t>Utilidade?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Otimização? </t>
+  </si>
+  <si>
+    <t>Critérios de avaliação</t>
+  </si>
+  <si>
+    <t>Escala</t>
+  </si>
+  <si>
+    <t>Ruim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bom </t>
+  </si>
+  <si>
+    <t>Ótimo</t>
+  </si>
+  <si>
+    <t>Execelente</t>
+  </si>
+  <si>
+    <t>Péssimo</t>
+  </si>
+  <si>
+    <t>Intuitividade?</t>
+  </si>
+  <si>
+    <t>1. A solução é intuitiva? </t>
+  </si>
+  <si>
+    <t>2. A solução é prática? </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3. Qual a usabilidade? </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>uso do sistema no seu dia no seu dia a dia.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">4. Processo de notificação? </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>aplicabilidade do conceito de três clicks.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">5. Qual a utilidade para você? </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>se faria diferença para resolução de suas atividades.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>6. O processo é otimização?</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> considerando os processos atuais da faculdade.</t>
+    </r>
+  </si>
+  <si>
+    <t>Questioário avaliação</t>
+  </si>
+  <si>
+    <t>Conhecimento do processo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total por áreas </t>
+  </si>
+  <si>
+    <t>Hábitos</t>
+  </si>
+  <si>
+    <t>Crítica</t>
+  </si>
+  <si>
+    <t>Relevância</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -85,8 +205,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -105,6 +241,48 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -118,19 +296,59 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -164,9 +382,45 @@
   </mc:AlternateContent>
   <c:chart>
     <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:backWall>
     <c:plotArea>
-      <c:layout/>
-      <c:barChart>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="3.7471818981776636E-2"/>
+          <c:y val="0.12263595286165292"/>
+          <c:w val="0.94147723752778212"/>
+          <c:h val="0.79915978229725981"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:bar3DChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
@@ -174,7 +428,87 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
           <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="2.1050943490441194E-2"/>
+                  <c:y val="-1.4774775253896784E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.8419575554135946E-2"/>
+                  <c:y val="-2.1106821791281122E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="2.4997995394898821E-2"/>
+                  <c:y val="-2.1106821791281139E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.8419575554136043E-2"/>
+                  <c:y val="-1.8996139612153008E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="1"/>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -185,47 +519,35 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Planilha1!$B$3:$G$3</c:f>
+              <c:f>(Planilha1!$B$2:$C$2,Planilha1!$D$2:$E$2,Planilha1!$F$2,Planilha1!$G$2)</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>Intuividade</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Praticidade</c:v>
+                  <c:v>Relevância</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Usabilidade</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Processo de notificação </c:v>
+                  <c:v>Conhecimento do processo</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Utilidade</c:v>
+                  <c:v>Crítica</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Otimização </c:v>
+                  <c:v>Hábitos</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Planilha1!$B$8:$G$8</c:f>
+              <c:f>(Planilha1!$B$9:$C$9,Planilha1!$D$9:$E$9,Planilha1!$F$9,Planilha1!$G$9)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>17</c:v>
@@ -246,11 +568,13 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="216523776"/>
-        <c:axId val="134157952"/>
-      </c:barChart>
+        <c:shape val="box"/>
+        <c:axId val="49891328"/>
+        <c:axId val="8283840"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
       <c:catAx>
-        <c:axId val="216523776"/>
+        <c:axId val="49891328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -259,7 +583,17 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="134157952"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="1"/>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="8283840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -267,7 +601,293 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="134157952"/>
+        <c:axId val="8283840"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="49891328"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:blipFill>
+      <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+      <a:tile tx="0" ty="0" sx="100000" sy="100000" flip="none" algn="tl"/>
+    </a:blipFill>
+    <a:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </a:scene3d>
+    <a:sp3d>
+      <a:bevelT prst="angle"/>
+    </a:sp3d>
+  </c:spPr>
+  <c:userShapes r:id="rId2"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="128"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="28"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:rAngAx val="0"/>
+      <c:perspective val="30"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="1.4472523649678321E-2"/>
+          <c:y val="0.12875161292681483"/>
+          <c:w val="0.97105495270064335"/>
+          <c:h val="0.81204026184425093"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="2.1050943490441169E-2"/>
+                  <c:y val="-1.0553410895640561E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.4472523649678321E-2"/>
+                  <c:y val="-6.3320465373843367E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="2.2366627458593767E-2"/>
+                  <c:y val="-8.4427287165124102E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.973525952228862E-2"/>
+                  <c:y val="-1.4774775253896862E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.9735259522288523E-2"/>
+                  <c:y val="-1.0553410895640561E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1"/>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Planilha1!$B$3:$F$3</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Intuitividade?</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Praticidade?</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Utilidade?</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Processo de notificação?</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Otimização? </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Planilha1!$B$8:$F$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:shape val="box"/>
+        <c:axId val="126367744"/>
+        <c:axId val="7164992"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="126367744"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="7030A0"/>
+                </a:solidFill>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="7164992"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="7164992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -289,19 +909,52 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="216523776"/>
+        <c:crossAx val="126367744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="threePt" dir="t"/>
+        </a:scene3d>
+      </c:spPr>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:spPr>
+    <a:gradFill>
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="accent1">
+            <a:tint val="66000"/>
+            <a:satMod val="160000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="50000">
+          <a:schemeClr val="accent1">
+            <a:tint val="44500"/>
+            <a:satMod val="160000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="accent1">
+            <a:tint val="23500"/>
+            <a:satMod val="160000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:lin ang="5400000" scaled="0"/>
+    </a:gradFill>
+  </c:spPr>
+  <c:userShapes r:id="rId1"/>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
@@ -317,17 +970,75 @@
   <c:chart>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="1.8419575554136043E-2"/>
+          <c:y val="0.17518662086763331"/>
+          <c:w val="0.97105495270064335"/>
+          <c:h val="0.75927320736604809"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="76200"/>
+          </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
           <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.947051904457724E-3"/>
+                  <c:y val="-2.5328186149537347E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-7.8941038089154481E-3"/>
+                  <c:y val="-2.5328186149537347E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.3156839681525746E-3"/>
+                  <c:y val="-1.8996139612153008E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -372,7 +1083,7 @@
                   <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>16</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -389,11 +1100,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="128595968"/>
-        <c:axId val="73540736"/>
+        <c:axId val="126369280"/>
+        <c:axId val="71879488"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="128595968"/>
+        <c:axId val="126369280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -402,7 +1113,17 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="73540736"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1"/>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="71879488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -410,7 +1131,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="73540736"/>
+        <c:axId val="71879488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -420,9 +1141,9 @@
           <c:spPr>
             <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="60000"/>
-                  <a:lumOff val="40000"/>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:prstDash val="solid"/>
@@ -435,15 +1156,44 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="128595968"/>
+        <c:crossAx val="126369280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+      </c:spPr>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:spPr>
+    <a:gradFill>
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:srgbClr val="FBEAC7"/>
+        </a:gs>
+        <a:gs pos="17999">
+          <a:srgbClr val="FEE7F2"/>
+        </a:gs>
+        <a:gs pos="36000">
+          <a:srgbClr val="FAC77D"/>
+        </a:gs>
+        <a:gs pos="61000">
+          <a:srgbClr val="FBA97D"/>
+        </a:gs>
+        <a:gs pos="82001">
+          <a:srgbClr val="FBD49C"/>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:srgbClr val="FEE7F2"/>
+        </a:gs>
+      </a:gsLst>
+      <a:lin ang="5400000" scaled="0"/>
+    </a:gradFill>
+  </c:spPr>
+  <c:userShapes r:id="rId1"/>
 </c:chartSpace>
 </file>
 
@@ -462,6 +1212,17 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
+    <sheetView zoomScale="82" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -470,6 +1231,91 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9652774" cy="6017012"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1" title="fdsfdfsdf"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.26594</cdr:x>
+      <cdr:y>0.03089</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.72924</cdr:x>
+      <cdr:y>0.08687</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="CaixaDeTexto 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="2567103" y="185854"/>
+          <a:ext cx="4472104" cy="336860"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Pontuaçao</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1800" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> média por área de validação</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR" sz="1800" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
@@ -496,7 +1342,246 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.26038</cdr:x>
+      <cdr:y>0.0374</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.72367</cdr:x>
+      <cdr:y>0.09338</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="3" name="CaixaDeTexto 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="2513360" y="225038"/>
+          <a:ext cx="4472104" cy="336860"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Avaliação</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1800" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> detalhada por questão</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR" sz="1800" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.26038</cdr:x>
+      <cdr:y>0.0374</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.72367</cdr:x>
+      <cdr:y>0.10039</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="4" name="CaixaDeTexto 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="2513389" y="225036"/>
+          <a:ext cx="4472034" cy="378988"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1800" b="1">
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Avaliação</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1800" b="1" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> detalhada por questão</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR" sz="1800" b="1">
+            <a:solidFill>
+              <a:srgbClr val="7030A0"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
@@ -521,6 +1606,128 @@
     <xdr:clientData/>
   </xdr:absoluteAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.26038</cdr:x>
+      <cdr:y>0.06443</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.72367</cdr:x>
+      <cdr:y>0.12741</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="CaixaDeTexto 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="2513361" y="387660"/>
+          <a:ext cx="4472034" cy="378988"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1800" b="1">
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Pontuação</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1800" b="1" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> total por usuário</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR" sz="1800" b="1">
+            <a:solidFill>
+              <a:srgbClr val="7030A0"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -778,7 +1985,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -786,57 +1993,82 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.85546875" customWidth="1"/>
     <col min="2" max="2" width="13.140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" customWidth="1"/>
+    <col min="4" max="4" width="11" customWidth="1"/>
     <col min="5" max="5" width="23" customWidth="1"/>
-    <col min="6" max="6" width="9.28515625" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+    </row>
+    <row r="2" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5"/>
+      <c r="B2" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="17"/>
+      <c r="D2" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="16"/>
+      <c r="F2" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="5"/>
     </row>
     <row r="3" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="4" t="s">
         <v>5</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B4" s="1">
         <v>4</v>
@@ -863,7 +2095,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B5" s="1">
         <v>5</v>
@@ -890,7 +2122,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B6" s="1">
         <v>4</v>
@@ -899,25 +2131,25 @@
         <v>5</v>
       </c>
       <c r="D6" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E6" s="1">
         <v>4</v>
       </c>
       <c r="F6" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G6" s="1">
         <v>5</v>
       </c>
       <c r="H6">
-        <f>SUM(B6:G6)</f>
+        <f t="shared" ref="H6:H8" si="0">SUM(B6:G6)</f>
         <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B7" s="1">
         <v>3</v>
@@ -926,61 +2158,82 @@
         <v>3</v>
       </c>
       <c r="D7" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E7" s="1">
         <v>2</v>
       </c>
       <c r="F7" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G7" s="1">
         <v>3</v>
       </c>
       <c r="H7">
-        <f>SUM(B7:G7)</f>
-        <v>16</v>
+        <f t="shared" si="0"/>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="5">
+      <c r="A8" s="15" t="str">
+        <f>"Avaliadas:  "&amp;COUNTA(A4:A7)</f>
+        <v>Avaliadas:  4</v>
+      </c>
+      <c r="B8" s="20">
         <f>SUM(B4:B7)</f>
         <v>16</v>
       </c>
-      <c r="C8" s="5">
-        <f t="shared" ref="C8:H8" si="0">SUM(C4:C7)</f>
+      <c r="C8" s="20">
+        <f t="shared" ref="C8:E8" si="1">SUM(C4:C7)</f>
         <v>18</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="20">
+        <f>SUM(D4:D7)</f>
+        <v>17</v>
+      </c>
+      <c r="E8" s="20">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="F8" s="20">
+        <f>SUM(F4:F7)</f>
+        <v>17</v>
+      </c>
+      <c r="G8" s="20">
+        <f>SUM(G4:G7)</f>
+        <v>17</v>
+      </c>
+      <c r="H8" s="15">
         <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="E8" s="5">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="F8" s="5">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="G8" s="5">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="H8" s="5">
-        <f>SUM(B8:G8)</f>
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
+      <c r="A9" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="21">
+        <f>(B8+C8)/2</f>
+        <v>17</v>
+      </c>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21">
+        <f>(D8+E8)/2</f>
+        <v>16</v>
+      </c>
+      <c r="E9" s="21"/>
+      <c r="F9" s="22">
+        <f>F8</f>
+        <v>17</v>
+      </c>
+      <c r="G9" s="22">
+        <f>G8</f>
+        <v>17</v>
+      </c>
+      <c r="H9" s="14">
+        <f>SUM(B9:G9)</f>
+        <v>67</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C10" s="1"/>
@@ -990,6 +2243,12 @@
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -997,6 +2256,12 @@
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="12">
+        <v>1</v>
+      </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -1004,6 +2269,12 @@
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="8">
+        <v>2</v>
+      </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -1011,6 +2282,12 @@
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="8">
+        <v>3</v>
+      </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -1018,6 +2295,12 @@
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="8">
+        <v>4</v>
+      </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -1025,14 +2308,61 @@
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="8">
+        <v>5</v>
+      </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="13" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A3:A18"/>
+  <mergeCells count="4">
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
--- a/Documentação final do projeto/Estrategia de validação.xlsx
+++ b/Documentação final do projeto/Estrategia de validação.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\181100053\Desktop\TCC\Documentação final do projeto\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7320" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7320"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -15,13 +20,67 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$3:$A$18</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>NEIMAR MOISES GOBBI</author>
+  </authors>
+  <commentList>
+    <comment ref="H3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Formula: QP/QU
+QP: Quantidade de peguntas
+QU: Quantidade usuários
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A9" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Formula: (QPA/QP)/QU
+QP: Peguntas
+QU: Quantidade de usuários
+QPA: Quantidade de perguntas por área
+ </t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -189,7 +248,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -220,6 +279,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="11">
@@ -296,7 +368,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -329,12 +401,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -347,8 +413,29 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -402,7 +489,14 @@
     <c:backWall>
       <c:thickness val="0"/>
       <c:spPr>
-        <a:noFill/>
+        <a:pattFill prst="pct5">
+          <a:fgClr>
+            <a:schemeClr val="accent1"/>
+          </a:fgClr>
+          <a:bgClr>
+            <a:schemeClr val="bg1"/>
+          </a:bgClr>
+        </a:pattFill>
         <a:ln w="25400">
           <a:noFill/>
         </a:ln>
@@ -414,10 +508,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="3.7471818981776636E-2"/>
-          <c:y val="0.12263595286165292"/>
-          <c:w val="0.94147723752778212"/>
-          <c:h val="0.79915978229725981"/>
+          <c:x val="1.6252833789587428E-2"/>
+          <c:y val="0.26939208560302902"/>
+          <c:w val="0.96269617375890515"/>
+          <c:h val="0.60524018632359367"/>
         </c:manualLayout>
       </c:layout>
       <c:bar3DChart>
@@ -453,6 +547,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
@@ -468,6 +567,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="4"/>
@@ -483,6 +587,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="5"/>
@@ -498,7 +607,19 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr/>
               <a:lstStyle/>
@@ -516,6 +637,11 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -544,16 +670,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>17</c:v>
+                  <c:v>4.25</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>17</c:v>
+                  <c:v>4.25</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>17</c:v>
+                  <c:v>4.25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -569,17 +695,18 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="49891328"/>
-        <c:axId val="8283840"/>
+        <c:axId val="-1970106272"/>
+        <c:axId val="-1970108992"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="49891328"/>
+        <c:axId val="-1970106272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -593,7 +720,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="8283840"/>
+        <c:crossAx val="-1970108992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -601,7 +728,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="8283840"/>
+        <c:axId val="-1970108992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -623,7 +750,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="49891328"/>
+        <c:crossAx val="-1970106272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -633,10 +760,14 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:blipFill>
-      <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-      <a:tile tx="0" ty="0" sx="100000" sy="100000" flip="none" algn="tl"/>
-    </a:blipFill>
+    <a:pattFill prst="pct5">
+      <a:fgClr>
+        <a:schemeClr val="accent1"/>
+      </a:fgClr>
+      <a:bgClr>
+        <a:schemeClr val="bg1"/>
+      </a:bgClr>
+    </a:pattFill>
     <a:scene3d>
       <a:camera prst="orthographicFront"/>
       <a:lightRig rig="threePt" dir="t"/>
@@ -645,7 +776,7 @@
       <a:bevelT prst="angle"/>
     </a:sp3d>
   </c:spPr>
-  <c:userShapes r:id="rId2"/>
+  <c:userShapes r:id="rId1"/>
 </c:chartSpace>
 </file>
 
@@ -668,7 +799,6 @@
       <c:rotX val="15"/>
       <c:rotY val="20"/>
       <c:rAngAx val="0"/>
-      <c:perspective val="30"/>
     </c:view3D>
     <c:floor>
       <c:thickness val="0"/>
@@ -714,6 +844,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
@@ -729,6 +864,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
@@ -744,6 +884,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="3"/>
@@ -759,6 +904,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="4"/>
@@ -774,7 +924,19 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr/>
               <a:lstStyle/>
@@ -792,6 +954,11 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -851,17 +1018,18 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="126367744"/>
-        <c:axId val="7164992"/>
+        <c:axId val="-1970108448"/>
+        <c:axId val="-1970117152"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="126367744"/>
+        <c:axId val="-1970108448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -879,7 +1047,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="7164992"/>
+        <c:crossAx val="-1970117152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -887,7 +1055,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="7164992"/>
+        <c:axId val="-1970117152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -909,7 +1077,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="126367744"/>
+        <c:crossAx val="-1970108448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1008,6 +1176,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
@@ -1023,6 +1196,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
@@ -1038,7 +1216,19 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -1046,6 +1236,12 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -1071,19 +1267,19 @@
             <c:numRef>
               <c:f>Planilha1!$H$4:$H$7</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>29</c:v>
+                  <c:v>4.833333333333333</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>26</c:v>
+                  <c:v>4.333333333333333</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>27</c:v>
+                  <c:v>4.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>18</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1098,18 +1294,18 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="126369280"/>
-        <c:axId val="71879488"/>
+        <c:axId val="-1970116608"/>
+        <c:axId val="-1970107360"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="126369280"/>
+        <c:axId val="-1970116608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1123,7 +1319,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="71879488"/>
+        <c:crossAx val="-1970107360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1131,7 +1327,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="71879488"/>
+        <c:axId val="-1970107360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1152,11 +1348,11 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="126369280"/>
+        <c:crossAx val="-1970116608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1201,7 +1397,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="82" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="94" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
@@ -1212,7 +1408,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="82" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="94" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
@@ -1223,7 +1419,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="82" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="94" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
@@ -1234,7 +1430,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9652774" cy="6017012"/>
+    <xdr:ext cx="8977819" cy="6221649"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Gráfico 1" title="fdsfdfsdf"/>
@@ -1262,11 +1458,11 @@
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
       <cdr:x>0.26594</cdr:x>
-      <cdr:y>0.03089</cdr:y>
+      <cdr:y>0.06998</cdr:y>
     </cdr:from>
     <cdr:to>
       <cdr:x>0.72924</cdr:x>
-      <cdr:y>0.08687</cdr:y>
+      <cdr:y>0.12596</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -1275,8 +1471,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="2567103" y="185854"/>
-          <a:ext cx="4472104" cy="336860"/>
+          <a:off x="2387561" y="435378"/>
+          <a:ext cx="4159424" cy="348288"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -1319,7 +1515,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9652774" cy="6017012"/>
+    <xdr:ext cx="8977819" cy="6221649"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Gráfico 1"/>
@@ -1346,129 +1542,12 @@
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.26038</cdr:x>
-      <cdr:y>0.0374</cdr:y>
+      <cdr:x>0.22686</cdr:x>
+      <cdr:y>0.03577</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.72367</cdr:x>
-      <cdr:y>0.09338</cdr:y>
-    </cdr:to>
-    <cdr:sp macro="" textlink="">
-      <cdr:nvSpPr>
-        <cdr:cNvPr id="3" name="CaixaDeTexto 1"/>
-        <cdr:cNvSpPr txBox="1"/>
-      </cdr:nvSpPr>
-      <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="2513360" y="225038"/>
-          <a:ext cx="4472104" cy="336860"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </cdr:spPr>
-      <cdr:txBody>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0"/>
-        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:lvl1pPr marL="0" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="pt-BR" sz="1800" b="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Avaliação</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="pt-BR" sz="1800" b="1" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t> detalhada por questão</a:t>
-          </a:r>
-          <a:endParaRPr lang="pt-BR" sz="1800" b="1">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </cdr:txBody>
-    </cdr:sp>
-  </cdr:relSizeAnchor>
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
-      <cdr:x>0.26038</cdr:x>
-      <cdr:y>0.0374</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>0.72367</cdr:x>
-      <cdr:y>0.10039</cdr:y>
+      <cdr:x>0.73834</cdr:x>
+      <cdr:y>0.09876</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -1477,8 +1556,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="2513389" y="225036"/>
-          <a:ext cx="4472034" cy="378988"/>
+          <a:off x="2036730" y="222557"/>
+          <a:ext cx="4591978" cy="391901"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -1585,7 +1664,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9652774" cy="6017012"/>
+    <xdr:ext cx="8977819" cy="6221649"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Gráfico 1"/>
@@ -1716,7 +1795,7 @@
                 <a:srgbClr val="7030A0"/>
               </a:solidFill>
             </a:rPr>
-            <a:t> total por usuário</a:t>
+            <a:t> média por usuário</a:t>
           </a:r>
           <a:endParaRPr lang="pt-BR" sz="1800" b="1">
             <a:solidFill>
@@ -1985,18 +2064,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2008,6 +2087,7 @@
     <col min="5" max="5" width="23" customWidth="1"/>
     <col min="6" max="6" width="13.140625" customWidth="1"/>
     <col min="7" max="7" width="12.5703125" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="27"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -2020,25 +2100,25 @@
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
+      <c r="H1" s="23"/>
     </row>
     <row r="2" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="16" t="s">
+      <c r="C2" s="21"/>
+      <c r="D2" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="16"/>
-      <c r="F2" s="18" t="s">
+      <c r="E2" s="20"/>
+      <c r="F2" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="G2" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="H2" s="5"/>
+      <c r="H2" s="23"/>
     </row>
     <row r="3" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -2088,9 +2168,9 @@
       <c r="G4" s="1">
         <v>5</v>
       </c>
-      <c r="H4">
-        <f>SUM(B4:G4)</f>
-        <v>29</v>
+      <c r="H4" s="24">
+        <f t="shared" ref="H4:H7" si="0">SUM(B4:G4)/6</f>
+        <v>4.833333333333333</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -2115,9 +2195,9 @@
       <c r="G5" s="1">
         <v>4</v>
       </c>
-      <c r="H5">
-        <f>SUM(B5:G5)</f>
-        <v>26</v>
+      <c r="H5" s="24">
+        <f t="shared" si="0"/>
+        <v>4.333333333333333</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -2142,9 +2222,9 @@
       <c r="G6" s="1">
         <v>5</v>
       </c>
-      <c r="H6">
-        <f t="shared" ref="H6:H8" si="0">SUM(B6:G6)</f>
-        <v>27</v>
+      <c r="H6" s="24">
+        <f>SUM(B6:G6)/6</f>
+        <v>4.5</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -2169,9 +2249,9 @@
       <c r="G7" s="1">
         <v>3</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="24">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -2179,60 +2259,60 @@
         <f>"Avaliadas:  "&amp;COUNTA(A4:A7)</f>
         <v>Avaliadas:  4</v>
       </c>
-      <c r="B8" s="20">
+      <c r="B8" s="18">
         <f>SUM(B4:B7)</f>
         <v>16</v>
       </c>
-      <c r="C8" s="20">
-        <f t="shared" ref="C8:E8" si="1">SUM(C4:C7)</f>
+      <c r="C8" s="18">
+        <f t="shared" ref="C8:H8" si="1">SUM(C4:C7)</f>
         <v>18</v>
       </c>
-      <c r="D8" s="20">
-        <f>SUM(D4:D7)</f>
+      <c r="D8" s="18">
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="E8" s="20">
+      <c r="E8" s="18">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="F8" s="20">
-        <f>SUM(F4:F7)</f>
+      <c r="F8" s="18">
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="G8" s="20">
-        <f>SUM(G4:G7)</f>
+      <c r="G8" s="18">
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="H8" s="15">
-        <f t="shared" si="0"/>
-        <v>100</v>
+      <c r="H8" s="25">
+        <f t="shared" si="1"/>
+        <v>16.666666666666664</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="21">
-        <f>(B8+C8)/2</f>
-        <v>17</v>
-      </c>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21">
-        <f>(D8+E8)/2</f>
-        <v>16</v>
-      </c>
-      <c r="E9" s="21"/>
-      <c r="F9" s="22">
-        <f>F8</f>
-        <v>17</v>
-      </c>
-      <c r="G9" s="22">
-        <f>G8</f>
-        <v>17</v>
-      </c>
-      <c r="H9" s="14">
+      <c r="B9" s="22">
+        <f>((B8+C8)/2)/4</f>
+        <v>4.25</v>
+      </c>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22">
+        <f>((D8+E8)/2)/4</f>
+        <v>4</v>
+      </c>
+      <c r="E9" s="22"/>
+      <c r="F9" s="19">
+        <f>F8/4</f>
+        <v>4.25</v>
+      </c>
+      <c r="G9" s="19">
+        <f>G8/4</f>
+        <v>4.25</v>
+      </c>
+      <c r="H9" s="26">
         <f>SUM(B9:G9)</f>
-        <v>67</v>
+        <v>16.75</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -2364,5 +2444,6 @@
     <mergeCell ref="D9:E9"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Documentação final do projeto/Estrategia de validação.xlsx
+++ b/Documentação final do projeto/Estrategia de validação.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\181100053\Desktop\TCC\Documentação final do projeto\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrador.IMDPOA\Documents\GitHub\TCC\Documentação final do projeto\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$3:$A$18</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -247,7 +247,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -368,7 +368,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -413,15 +413,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -437,6 +428,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -455,7 +456,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
   <c:roundedCorners val="0"/>
@@ -531,6 +532,11 @@
                 <a:srgbClr val="FFC000"/>
               </a:solidFill>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-9802-4A9B-A754-BB43199BF209}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:dLbl>
@@ -550,6 +556,9 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-9802-4A9B-A754-BB43199BF209}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -571,6 +580,9 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
                 </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-9802-4A9B-A754-BB43199BF209}"/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -591,6 +603,9 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
                 </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-9802-4A9B-A754-BB43199BF209}"/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -610,6 +625,9 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-9802-4A9B-A754-BB43199BF209}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -684,6 +702,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-9802-4A9B-A754-BB43199BF209}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -781,7 +804,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
   <c:roundedCorners val="0"/>
@@ -848,6 +871,9 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
                 </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-8294-46F9-AECB-DC41E028BDC1}"/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -867,6 +893,9 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-8294-46F9-AECB-DC41E028BDC1}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -888,6 +917,9 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
                 </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-8294-46F9-AECB-DC41E028BDC1}"/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -908,6 +940,9 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
                 </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-8294-46F9-AECB-DC41E028BDC1}"/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -927,6 +962,9 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-8294-46F9-AECB-DC41E028BDC1}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1007,6 +1045,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-8294-46F9-AECB-DC41E028BDC1}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1123,7 +1166,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
   <c:roundedCorners val="0"/>
@@ -1177,8 +1220,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-4877-4EA0-880F-C622069EB2C2}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1197,8 +1241,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-4877-4EA0-880F-C622069EB2C2}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1217,8 +1262,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-4877-4EA0-880F-C622069EB2C2}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1238,7 +1284,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -1278,13 +1323,15 @@
                 <c:pt idx="2">
                   <c:v>4.5</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-4877-4EA0-880F-C622069EB2C2}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1397,7 +1444,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="94" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="72" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
@@ -1408,7 +1455,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="94" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="72" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
@@ -1430,7 +1477,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8977819" cy="6221649"/>
+    <xdr:ext cx="9617604" cy="5979583"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Gráfico 1" title="fdsfdfsdf"/>
@@ -1515,7 +1562,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8977819" cy="6221649"/>
+    <xdr:ext cx="9617604" cy="5979583"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Gráfico 1"/>
@@ -1852,7 +1899,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1887,7 +1934,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -2072,10 +2119,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2087,10 +2134,10 @@
     <col min="5" max="5" width="23" customWidth="1"/>
     <col min="6" max="6" width="13.140625" customWidth="1"/>
     <col min="7" max="7" width="12.5703125" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="27"/>
+    <col min="8" max="8" width="9.140625" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -2100,27 +2147,27 @@
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
-      <c r="H1" s="23"/>
+      <c r="H1" s="20"/>
     </row>
-    <row r="2" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="20" t="s">
+      <c r="C2" s="26"/>
+      <c r="D2" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="20"/>
+      <c r="E2" s="25"/>
       <c r="F2" s="16" t="s">
         <v>30</v>
       </c>
       <c r="G2" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="H2" s="23"/>
+      <c r="H2" s="20"/>
     </row>
-    <row r="3" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -2146,7 +2193,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -2168,12 +2215,12 @@
       <c r="G4" s="1">
         <v>5</v>
       </c>
-      <c r="H4" s="24">
+      <c r="H4" s="21">
         <f t="shared" ref="H4:H7" si="0">SUM(B4:G4)/6</f>
         <v>4.833333333333333</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -2195,12 +2242,12 @@
       <c r="G5" s="1">
         <v>4</v>
       </c>
-      <c r="H5" s="24">
+      <c r="H5" s="21">
         <f t="shared" si="0"/>
         <v>4.333333333333333</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -2222,12 +2269,15 @@
       <c r="G6" s="1">
         <v>5</v>
       </c>
-      <c r="H6" s="24">
+      <c r="H6" s="21">
         <f>SUM(B6:G6)/6</f>
         <v>4.5</v>
       </c>
+      <c r="I6" s="1">
+        <v>4.5599999999999996</v>
+      </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -2249,12 +2299,12 @@
       <c r="G7" s="1">
         <v>3</v>
       </c>
-      <c r="H7" s="24">
-        <f t="shared" si="0"/>
+      <c r="I7" s="21">
+        <f>SUM(B7:G7)/6</f>
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="str">
         <f>"Avaliadas:  "&amp;COUNTA(A4:A7)</f>
         <v>Avaliadas:  4</v>
@@ -2283,25 +2333,29 @@
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="H8" s="25">
-        <f t="shared" si="1"/>
-        <v>16.666666666666664</v>
+      <c r="H8" s="22">
+        <f>SUM(B8:G8)/6</f>
+        <v>16.666666666666668</v>
+      </c>
+      <c r="I8" s="28">
+        <f>I6-I7</f>
+        <v>1.5599999999999996</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="22">
+      <c r="B9" s="27">
         <f>((B8+C8)/2)/4</f>
         <v>4.25</v>
       </c>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22">
+      <c r="C9" s="27"/>
+      <c r="D9" s="27">
         <f>((D8+E8)/2)/4</f>
         <v>4</v>
       </c>
-      <c r="E9" s="22"/>
+      <c r="E9" s="27"/>
       <c r="F9" s="19">
         <f>F8/4</f>
         <v>4.25</v>
@@ -2310,19 +2364,19 @@
         <f>G8/4</f>
         <v>4.25</v>
       </c>
-      <c r="H9" s="26">
+      <c r="H9" s="23">
         <f>SUM(B9:G9)</f>
         <v>16.75</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>12</v>
       </c>
@@ -2335,7 +2389,7 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>18</v>
       </c>
@@ -2348,7 +2402,7 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>14</v>
       </c>
@@ -2361,7 +2415,7 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>15</v>
       </c>
@@ -2374,7 +2428,7 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>16</v>
       </c>
@@ -2387,7 +2441,7 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>17</v>
       </c>

--- a/Documentação final do projeto/Estrategia de validação.xlsx
+++ b/Documentação final do projeto/Estrategia de validação.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrador.IMDPOA\Documents\GitHub\TCC\Documentação final do projeto\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7320"/>
   </bookViews>
@@ -20,7 +15,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$3:$A$18</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +30,7 @@
     <author>NEIMAR MOISES GOBBI</author>
   </authors>
   <commentList>
-    <comment ref="H3" authorId="0" shapeId="0">
+    <comment ref="H3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -62,7 +57,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A9" authorId="0" shapeId="0">
+    <comment ref="A9" authorId="0">
       <text>
         <r>
           <rPr>
@@ -92,19 +87,7 @@
     <t xml:space="preserve">Nome </t>
   </si>
   <si>
-    <t>Bruno</t>
-  </si>
-  <si>
-    <t>Marciano</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rodrigo </t>
-  </si>
-  <si>
     <t>Total</t>
-  </si>
-  <si>
-    <t>Fabricio</t>
   </si>
   <si>
     <t>Praticidade?</t>
@@ -243,11 +226,23 @@
   <si>
     <t>Relevância</t>
   </si>
+  <si>
+    <t>Rodrigo (Coordenador)</t>
+  </si>
+  <si>
+    <t>Marciano (Professor)</t>
+  </si>
+  <si>
+    <t>Fabricio (Professor)</t>
+  </si>
+  <si>
+    <t>Bruno (Professor)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -428,6 +423,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -437,7 +433,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -456,7 +451,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
   <c:roundedCorners val="0"/>
@@ -532,7 +527,7 @@
                 <a:srgbClr val="FFC000"/>
               </a:solidFill>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000001-9802-4A9B-A754-BB43199BF209}"/>
               </c:ext>
@@ -553,7 +548,7 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
                 </c:ext>
@@ -576,7 +571,7 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
                 </c:ext>
@@ -599,7 +594,7 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
                 </c:ext>
@@ -622,7 +617,7 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
                 </c:ext>
@@ -655,7 +650,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="0"/>
               </c:ext>
@@ -702,7 +697,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-9802-4A9B-A754-BB43199BF209}"/>
             </c:ext>
@@ -718,12 +713,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="-1970106272"/>
-        <c:axId val="-1970108992"/>
+        <c:axId val="57651712"/>
+        <c:axId val="20862016"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="-1970106272"/>
+        <c:axId val="57651712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -743,7 +738,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1970108992"/>
+        <c:crossAx val="20862016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -751,7 +746,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1970108992"/>
+        <c:axId val="20862016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -773,7 +768,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1970106272"/>
+        <c:crossAx val="57651712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -804,7 +799,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
   <c:roundedCorners val="0"/>
@@ -822,6 +817,7 @@
       <c:rotX val="15"/>
       <c:rotY val="20"/>
       <c:rAngAx val="0"/>
+      <c:perspective val="30"/>
     </c:view3D>
     <c:floor>
       <c:thickness val="0"/>
@@ -867,7 +863,7 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
                 </c:ext>
@@ -890,7 +886,7 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
                 </c:ext>
@@ -913,7 +909,7 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
                 </c:ext>
@@ -936,7 +932,7 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
                 </c:ext>
@@ -959,7 +955,7 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
                 </c:ext>
@@ -992,7 +988,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="0"/>
               </c:ext>
@@ -1045,7 +1041,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-8294-46F9-AECB-DC41E028BDC1}"/>
             </c:ext>
@@ -1061,12 +1057,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="-1970108448"/>
-        <c:axId val="-1970117152"/>
+        <c:axId val="57653248"/>
+        <c:axId val="82209600"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="-1970108448"/>
+        <c:axId val="57653248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1090,7 +1086,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1970117152"/>
+        <c:crossAx val="82209600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1098,7 +1094,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1970117152"/>
+        <c:axId val="82209600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1120,7 +1116,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1970108448"/>
+        <c:crossAx val="57653248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1166,7 +1162,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
   <c:roundedCorners val="0"/>
@@ -1219,7 +1215,7 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000000-4877-4EA0-880F-C622069EB2C2}"/>
@@ -1240,7 +1236,7 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000001-4877-4EA0-880F-C622069EB2C2}"/>
@@ -1261,7 +1257,7 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000002-4877-4EA0-880F-C622069EB2C2}"/>
@@ -1282,7 +1278,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="0"/>
               </c:ext>
@@ -1294,16 +1290,16 @@
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>Rodrigo </c:v>
+                  <c:v>Rodrigo (Coordenador)</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Bruno</c:v>
+                  <c:v>Bruno (Professor)</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Marciano</c:v>
+                  <c:v>Marciano (Professor)</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Fabricio</c:v>
+                  <c:v>Fabricio (Professor)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1327,7 +1323,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-4877-4EA0-880F-C622069EB2C2}"/>
             </c:ext>
@@ -1341,12 +1337,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1970116608"/>
-        <c:axId val="-1970107360"/>
+        <c:axId val="58544128"/>
+        <c:axId val="82211328"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1970116608"/>
+        <c:axId val="58544128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1366,7 +1363,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1970107360"/>
+        <c:crossAx val="82211328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1374,7 +1371,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1970107360"/>
+        <c:axId val="82211328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1399,7 +1396,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1970116608"/>
+        <c:crossAx val="58544128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1899,7 +1896,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1934,7 +1931,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -2111,7 +2108,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2122,7 +2119,7 @@
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2151,19 +2148,19 @@
     </row>
     <row r="2" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
-      <c r="B2" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="25" t="s">
+      <c r="B2" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="25"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="26"/>
       <c r="F2" s="16" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="H2" s="20"/>
     </row>
@@ -2172,30 +2169,30 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="G3" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="B4" s="1">
         <v>4</v>
@@ -2216,13 +2213,13 @@
         <v>5</v>
       </c>
       <c r="H4" s="21">
-        <f t="shared" ref="H4:H7" si="0">SUM(B4:G4)/6</f>
+        <f t="shared" ref="H4:H5" si="0">SUM(B4:G4)/6</f>
         <v>4.833333333333333</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="B5" s="1">
         <v>5</v>
@@ -2249,7 +2246,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="B6" s="1">
         <v>4</v>
@@ -2279,7 +2276,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="B7" s="1">
         <v>3</v>
@@ -2314,7 +2311,7 @@
         <v>16</v>
       </c>
       <c r="C8" s="18">
-        <f t="shared" ref="C8:H8" si="1">SUM(C4:C7)</f>
+        <f t="shared" ref="C8:G8" si="1">SUM(C4:C7)</f>
         <v>18</v>
       </c>
       <c r="D8" s="18">
@@ -2337,25 +2334,25 @@
         <f>SUM(B8:G8)/6</f>
         <v>16.666666666666668</v>
       </c>
-      <c r="I8" s="28">
+      <c r="I8" s="25">
         <f>I6-I7</f>
         <v>1.5599999999999996</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" s="27">
+        <v>24</v>
+      </c>
+      <c r="B9" s="28">
         <f>((B8+C8)/2)/4</f>
         <v>4.25</v>
       </c>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27">
+      <c r="C9" s="28"/>
+      <c r="D9" s="28">
         <f>((D8+E8)/2)/4</f>
         <v>4</v>
       </c>
-      <c r="E9" s="27"/>
+      <c r="E9" s="28"/>
       <c r="F9" s="19">
         <f>F8/4</f>
         <v>4.25</v>
@@ -2378,10 +2375,10 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -2391,7 +2388,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B12" s="12">
         <v>1</v>
@@ -2404,7 +2401,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B13" s="8">
         <v>2</v>
@@ -2417,7 +2414,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B14" s="8">
         <v>3</v>
@@ -2430,7 +2427,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B15" s="8">
         <v>4</v>
@@ -2443,7 +2440,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B16" s="8">
         <v>5</v>
@@ -2456,37 +2453,37 @@
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
